--- a/output/APEX_33345956000184.xlsx
+++ b/output/APEX_33345956000184.xlsx
@@ -570,10 +570,10 @@
         <v>44165</v>
       </c>
       <c r="B17">
-        <v>-0.04781203000000001</v>
+        <v>-0.04026006999999998</v>
       </c>
       <c r="C17">
-        <v>0.04615907270505182</v>
+        <v>0.05445633303559938</v>
       </c>
     </row>
   </sheetData>

--- a/output/APEX_33345956000184.xlsx
+++ b/output/APEX_33345956000184.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>APEX LONG BIASED ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,194 +383,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43708</v>
       </c>
       <c r="B2">
-        <v>-0.01851751999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43738</v>
       </c>
       <c r="B3">
-        <v>-0.02662275999999997</v>
-      </c>
-      <c r="C3">
         <v>-0.008258160655093882</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43769</v>
       </c>
       <c r="B4">
-        <v>0.01026210000000005</v>
-      </c>
-      <c r="C4">
         <v>0.03789369474059212</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43799</v>
       </c>
       <c r="B5">
-        <v>0.02633660999999998</v>
-      </c>
-      <c r="C5">
         <v>0.01591122739336637</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43830</v>
       </c>
       <c r="B6">
-        <v>0.08855144999999998</v>
-      </c>
-      <c r="C6">
         <v>0.06061835794788606</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43861</v>
       </c>
       <c r="B7">
-        <v>0.14626703</v>
-      </c>
-      <c r="C7">
         <v>0.05302053476663882</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43890</v>
       </c>
       <c r="B8">
-        <v>0.05897353999999999</v>
-      </c>
-      <c r="C8">
         <v>-0.07615458502719041</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43921</v>
       </c>
       <c r="B9">
-        <v>-0.25869345</v>
-      </c>
-      <c r="C9">
         <v>-0.2999763242431912</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43951</v>
       </c>
       <c r="B10">
-        <v>-0.17953811</v>
-      </c>
-      <c r="C10">
         <v>0.1067781473130112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43982</v>
       </c>
       <c r="B11">
-        <v>-0.13966101</v>
-      </c>
-      <c r="C11">
         <v>0.04860323250358412</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>44012</v>
       </c>
       <c r="B12">
-        <v>-0.07073019000000003</v>
-      </c>
-      <c r="C12">
         <v>0.08012053481384118</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>44043</v>
       </c>
       <c r="B13">
-        <v>-0.03047533000000002</v>
-      </c>
-      <c r="C13">
         <v>0.04331880748391037</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44074</v>
       </c>
       <c r="B14">
-        <v>-0.02447452000000006</v>
-      </c>
-      <c r="C14">
         <v>0.006189435076468852</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44104</v>
       </c>
       <c r="B15">
-        <v>-0.05782505000000004</v>
-      </c>
-      <c r="C15">
         <v>-0.03418724644690985</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44135</v>
       </c>
       <c r="B16">
-        <v>-0.08982486999999995</v>
-      </c>
-      <c r="C16">
         <v>-0.03396377710954834</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44165</v>
       </c>
       <c r="B17">
-        <v>-0.04026006999999998</v>
-      </c>
-      <c r="C17">
-        <v>0.05445633303559938</v>
+        <v>0.04293969227658412</v>
       </c>
     </row>
   </sheetData>
